--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N2">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O2">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P2">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q2">
-        <v>18.15335703964022</v>
+        <v>0.1624542718151111</v>
       </c>
       <c r="R2">
-        <v>163.380213356762</v>
+        <v>1.462088446336</v>
       </c>
       <c r="S2">
-        <v>0.1725288801025978</v>
+        <v>0.01917706765577491</v>
       </c>
       <c r="T2">
-        <v>0.1725288801025978</v>
+        <v>0.01917706765577492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P3">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q3">
-        <v>1.420883357276222</v>
+        <v>1.335857541276444</v>
       </c>
       <c r="R3">
-        <v>12.787950215486</v>
+        <v>12.022717871488</v>
       </c>
       <c r="S3">
-        <v>0.01350402649228919</v>
+        <v>0.157692562721226</v>
       </c>
       <c r="T3">
-        <v>0.01350402649228919</v>
+        <v>0.157692562721226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>49.221867</v>
       </c>
       <c r="I4">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J4">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N4">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O4">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P4">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q4">
-        <v>52.69613232213534</v>
+        <v>0.5015927011153333</v>
       </c>
       <c r="R4">
-        <v>474.265190899218</v>
+        <v>4.514334310038</v>
       </c>
       <c r="S4">
-        <v>0.5008222267332492</v>
+        <v>0.05921098323520287</v>
       </c>
       <c r="T4">
-        <v>0.5008222267332491</v>
+        <v>0.05921098323520289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>0.754162</v>
       </c>
       <c r="O5">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P5">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q5">
         <v>4.124584628939334</v>
@@ -756,10 +756,10 @@
         <v>37.121261660454</v>
       </c>
       <c r="S5">
-        <v>0.03919991026262521</v>
+        <v>0.4868904806095807</v>
       </c>
       <c r="T5">
-        <v>0.0391999102626252</v>
+        <v>0.4868904806095807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>24.969499</v>
       </c>
       <c r="I6">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J6">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N6">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O6">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P6">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q6">
-        <v>26.73194056863844</v>
+        <v>0.2544502923651111</v>
       </c>
       <c r="R6">
-        <v>240.587465117746</v>
+        <v>2.290052631286</v>
       </c>
       <c r="S6">
-        <v>0.2540594425155315</v>
+        <v>0.03003682462269086</v>
       </c>
       <c r="T6">
-        <v>0.2540594425155314</v>
+        <v>0.03003682462269087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.969499</v>
       </c>
       <c r="I7">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J7">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.754162</v>
       </c>
       <c r="O7">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P7">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q7">
         <v>2.092338589426444</v>
@@ -880,10 +880,10 @@
         <v>18.831047304838</v>
       </c>
       <c r="S7">
-        <v>0.01988551389370724</v>
+        <v>0.2469920811555247</v>
       </c>
       <c r="T7">
-        <v>0.01988551389370724</v>
+        <v>0.2469920811555247</v>
       </c>
     </row>
   </sheetData>
